--- a/biology/Botanique/Syagrus_romanzoffiana/Syagrus_romanzoffiana.xlsx
+++ b/biology/Botanique/Syagrus_romanzoffiana/Syagrus_romanzoffiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syagrus romanzoffiana, parfois appelé Cocotier plumeux, Palmier pindó, Ybá pitá ou palmier de la reine, est une espèce de plantes de la famille des Arecaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Syagrus romanzoffiana est un grand palmier pouvant atteindre 12 à 15 m de hauteur[1], au feuillage d'un aspect "plumeux". Le stipe, grisâtre, porte les cicatrices à l'aspect annelé des feuilles tombées. Les grandes feuilles persistantes sont pennées, d'aspect plumeux, pouvant mesurer jusqu'à 4,5 m de longueur environ[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Syagrus romanzoffiana est un grand palmier pouvant atteindre 12 à 15 m de hauteur, au feuillage d'un aspect "plumeux". Le stipe, grisâtre, porte les cicatrices à l'aspect annelé des feuilles tombées. Les grandes feuilles persistantes sont pennées, d'aspect plumeux, pouvant mesurer jusqu'à 4,5 m de longueur environ.
 Les fleurs du palmier reine sont de couleur blanc-crème et disposées en inflorescences ramifiées qui apparaissent entre les feuilles et mesurent jusqu'à 90 cm de long. Les fruits de Syagrus romanzoffiana mesurent de 2 à 3 cm, sont ovoïdes, jaunes, et ressemblent à de petites dattes non comestibles.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Syagrus romanzoffiana est natif du sud du Brésil, du Paraguay et du nord-est de l'Argentine, notamment dans le Gran Chaco. Comme c'est devenu une plante ornementale, il a été introduit à cet effet dans d'autres régions subtropicales du monde, étant devenu d'usage courant en paysagisme. Il tolère bien les sols relativement pauvres et les températures relativement fraîches.
 </t>
@@ -574,7 +590,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Synonymes :
 Arecastrum romanzoffianum (Cham.) Becc.
@@ -606,7 +624,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Syagrus romanzoffiana est un beau palmier de croissance relativement rapide, mais à relativiser par rapport à lenteur de croissance des palmiers de manière générale. Des sujets peuvent être admirés au jardin botanique de Pamplemousses à Maurice.
 Syagrus romanzoffiana manque de rusticité, ce qui réduit son aire de culture à la zone de l'oranger. En effet, des températures de −7 °C peuvent lui être fatales. Il est devenu populaire sur la Côte d'Azur depuis les années 2000. Par ses qualités ornementales, il bénéficie d'un engouement dans les climats tempérés.
